--- a/story_xlsx_files/44.xlsx
+++ b/story_xlsx_files/44.xlsx
@@ -12,12 +12,111 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
   <si>
     <t>storyText</t>
   </si>
   <si>
-    <t>Attending a Lecture Meet Cute</t>
+    <t>locationEvent</t>
+  </si>
+  <si>
+    <t>socialEvent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leon and  Ariana hurried into the classroom at the same time, and Leon did a double-take when he saw her. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This was his first day after transferring to a new college, so he didn't think that he knew anyone on campus, but he couldn't shake the nagging feeling  that he had seen her somewhere before. </t>
+  </si>
+  <si>
+    <t>They were both a bit late, so they quickly slid into seats next to each other in the back of the small classroom.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This room was usually used for small meetings, but had been rearranged with the table pushed to the side and chairs set up in rows to face the projector screen. </t>
+  </si>
+  <si>
+    <t>There were no windows in the room, since they were down in the sub-basement of the history department.</t>
+  </si>
+  <si>
+    <t>Leon could not stop looking over Ariana, trying to figure out where he had seen her before.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ariana was oblivious to Leon’s gaze and was only focused on getting ready for class. </t>
+  </si>
+  <si>
+    <t>“Good afternoon class," the professor began.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Welcome to Egyptian Cultural Studies. </t>
+  </si>
+  <si>
+    <t>Today we will be talking about mummification, one of the most famous and often misunderstood customs in ancient Egyptian society.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Leon pulled out his notebook, trying to concentrate on the class.</t>
+  </si>
+  <si>
+    <t>Within a few minutes, though he found his attention wandering back to Ariana.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> He ripped off a corner of a page in his notebook, wrote a note and set it on her desk.</t>
+  </si>
+  <si>
+    <t>“Hi, sorry, you look really familiar," it read.</t>
+  </si>
+  <si>
+    <t>"Do I know you from somewhere?”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">She looked at the note with surprise, and then turned to notice Leon for the first time. </t>
+  </si>
+  <si>
+    <t>She instantly liked him when she saw him; he had very soft eyes and sharp features, a combination that made him seem  trustworthy and genuine.</t>
+  </si>
+  <si>
+    <t>He smiled at her and and she flashed him a smile back.</t>
+  </si>
+  <si>
+    <t>Then she turned the note over to the back and started to write a reply.</t>
+  </si>
+  <si>
+    <t>Meanwhile the professor continued, “One may well question why the ancient Egyptians spent so much time and effort on their funerary practices.</t>
+  </si>
+  <si>
+    <t>Not only was the mummification process itself a complicated affair, but there were also elaborate rituals before, during, and after death.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The practice required teams of experts with years of training, and took a total of 70 days to complete.” </t>
+  </si>
+  <si>
+    <t>Ariana passed the note back to Leon, on which she had replied, “No, but maybe my twin and I were separated at birth.”</t>
+  </si>
+  <si>
+    <t>They passed notes back and forth the whole class like they were back in high school.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Near the end of the lecture, Leon wrote, “Would you like to go to dinner tonight?” </t>
+  </si>
+  <si>
+    <t>Ariana read the note, and looked at him and nodded her head</t>
+  </si>
+  <si>
+    <t>She wrote back on the slip of paper, “Pick me up at 6 in front of Patton Hall.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Then the professor ended the lecture and announced to the class that they would have their first quiz next class on Friday on mummification. </t>
+  </si>
+  <si>
+    <t>Everyone packed up and started heading out leave, as well as Sophie and Leon.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">They approached each other smiling, and Leon said, “Well it was great to meet you, again, or maybe not again, but regardless it was great to meet you.” </t>
+  </si>
+  <si>
+    <t xml:space="preserve">She replied, “Yes, I have to run to my next class, but I’ll see you later tonight.” </t>
+  </si>
+  <si>
+    <t xml:space="preserve">She waved as they parted ways outside of the door of the classroom, and Leon was still trying to figure out where he had seen her before as he watched her go. </t>
   </si>
 </sst>
 </file>
@@ -27,7 +126,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -43,6 +142,11 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="13"/>
+      <name val="Helvetica"/>
     </font>
   </fonts>
   <fills count="4">
@@ -184,7 +288,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -197,10 +301,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -209,13 +316,22 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -239,6 +355,7 @@
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="ff222222"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1300,7 +1417,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
@@ -1316,205 +1433,568 @@
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="2">
+        <v>2</v>
+      </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" s="4">
-        <v>44</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" ht="32.05" customHeight="1">
-      <c r="A3" t="s" s="7">
+    <row r="2" ht="92.25" customHeight="1">
+      <c r="A2" t="s" s="4">
+        <v>3</v>
+      </c>
+      <c r="B2" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="10"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="10"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="10"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="10"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="10"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="10"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="10"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="10"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="10"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="10"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="10"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="10"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-    </row>
-    <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="10"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-    </row>
-    <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="10"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-    </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="10"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-    </row>
-    <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="10"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-    </row>
-    <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="10"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-    </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="10"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-    </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="10"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" ht="152.05" customHeight="1">
+      <c r="A3" t="s" s="8">
+        <v>4</v>
+      </c>
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" ht="92.05" customHeight="1">
+      <c r="A4" t="s" s="8">
+        <v>5</v>
+      </c>
+      <c r="B4" s="9">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10">
+        <v>1</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" ht="128.05" customHeight="1">
+      <c r="A5" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="B5" s="9">
+        <v>1</v>
+      </c>
+      <c r="C5" s="10">
+        <v>1</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" ht="92.05" customHeight="1">
+      <c r="A6" t="s" s="8">
+        <v>7</v>
+      </c>
+      <c r="B6" s="9">
+        <v>1</v>
+      </c>
+      <c r="C6" s="10">
+        <v>1</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" ht="80.05" customHeight="1">
+      <c r="A7" t="s" s="8">
+        <v>8</v>
+      </c>
+      <c r="B7" s="9">
+        <v>1</v>
+      </c>
+      <c r="C7" s="10">
+        <v>1</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" ht="68.05" customHeight="1">
+      <c r="A8" t="s" s="8">
+        <v>9</v>
+      </c>
+      <c r="B8" s="9">
+        <v>1</v>
+      </c>
+      <c r="C8" s="10">
+        <v>1</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" ht="44.05" customHeight="1">
+      <c r="A9" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="B9" s="9">
+        <v>2</v>
+      </c>
+      <c r="C9" s="10">
+        <v>1</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" ht="44.05" customHeight="1">
+      <c r="A10" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="B10" s="9">
+        <v>2</v>
+      </c>
+      <c r="C10" s="10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" ht="116.05" customHeight="1">
+      <c r="A11" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="B11" s="9">
+        <v>2</v>
+      </c>
+      <c r="C11" s="10">
+        <v>1</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" ht="68.05" customHeight="1">
+      <c r="A12" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="B12" s="9">
+        <v>2</v>
+      </c>
+      <c r="C12" s="10">
+        <v>1</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" ht="80.05" customHeight="1">
+      <c r="A13" t="s" s="8">
+        <v>14</v>
+      </c>
+      <c r="B13" s="9">
+        <v>2</v>
+      </c>
+      <c r="C13" s="10">
+        <v>1</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" ht="68.05" customHeight="1">
+      <c r="A14" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="B14" s="9">
+        <v>2</v>
+      </c>
+      <c r="C14" s="10">
+        <v>1</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" ht="44.05" customHeight="1">
+      <c r="A15" t="s" s="8">
+        <v>16</v>
+      </c>
+      <c r="B15" s="9">
+        <v>2</v>
+      </c>
+      <c r="C15" s="10">
+        <v>2</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" ht="44.05" customHeight="1">
+      <c r="A16" t="s" s="8">
+        <v>17</v>
+      </c>
+      <c r="B16" s="9">
+        <v>2</v>
+      </c>
+      <c r="C16" s="10">
+        <v>2</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" ht="68.05" customHeight="1">
+      <c r="A17" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B17" s="9">
+        <v>2</v>
+      </c>
+      <c r="C17" s="10">
+        <v>2</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" ht="116.05" customHeight="1">
+      <c r="A18" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="B18" s="9">
+        <v>2</v>
+      </c>
+      <c r="C18" s="10">
+        <v>2</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" ht="56.05" customHeight="1">
+      <c r="A19" t="s" s="8">
+        <v>20</v>
+      </c>
+      <c r="B19" s="9">
+        <v>2</v>
+      </c>
+      <c r="C19" s="10">
+        <v>2</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20" ht="68.05" customHeight="1">
+      <c r="A20" t="s" s="8">
+        <v>21</v>
+      </c>
+      <c r="B20" s="9">
+        <v>2</v>
+      </c>
+      <c r="C20" s="10">
+        <v>2</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+    </row>
+    <row r="21" ht="128.05" customHeight="1">
+      <c r="A21" t="s" s="8">
+        <v>22</v>
+      </c>
+      <c r="B21" s="9">
+        <v>3</v>
+      </c>
+      <c r="C21" s="10">
+        <v>2</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+    </row>
+    <row r="22" ht="116.05" customHeight="1">
+      <c r="A22" t="s" s="8">
+        <v>23</v>
+      </c>
+      <c r="B22" s="9">
+        <v>3</v>
+      </c>
+      <c r="C22" s="10">
+        <v>2</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+    </row>
+    <row r="23" ht="92.05" customHeight="1">
+      <c r="A23" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="B23" s="9">
+        <v>3</v>
+      </c>
+      <c r="C23" s="10">
+        <v>2</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+    </row>
+    <row r="24" ht="104.05" customHeight="1">
+      <c r="A24" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="B24" s="9">
+        <v>3</v>
+      </c>
+      <c r="C24" s="10">
+        <v>2</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+    </row>
+    <row r="25" ht="80.05" customHeight="1">
+      <c r="A25" t="s" s="8">
+        <v>26</v>
+      </c>
+      <c r="B25" s="9">
+        <v>3</v>
+      </c>
+      <c r="C25" s="10">
+        <v>2</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+    </row>
+    <row r="26" ht="68.05" customHeight="1">
+      <c r="A26" t="s" s="8">
+        <v>27</v>
+      </c>
+      <c r="B26" s="9">
+        <v>3</v>
+      </c>
+      <c r="C26" s="10">
+        <v>3</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+    </row>
+    <row r="27" ht="56.35" customHeight="1">
+      <c r="A27" t="s" s="12">
+        <v>28</v>
+      </c>
+      <c r="B27" s="9">
+        <v>3</v>
+      </c>
+      <c r="C27" s="10">
+        <v>3</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+    </row>
+    <row r="28" ht="56.35" customHeight="1">
+      <c r="A28" t="s" s="12">
+        <v>29</v>
+      </c>
+      <c r="B28" s="9">
+        <v>3</v>
+      </c>
+      <c r="C28" s="10">
+        <v>3</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+    </row>
+    <row r="29" ht="116.05" customHeight="1">
+      <c r="A29" t="s" s="8">
+        <v>30</v>
+      </c>
+      <c r="B29" s="9">
+        <v>4</v>
+      </c>
+      <c r="C29" s="10">
+        <v>3</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+    </row>
+    <row r="30" ht="68.05" customHeight="1">
+      <c r="A30" t="s" s="8">
+        <v>31</v>
+      </c>
+      <c r="B30" s="9">
+        <v>4</v>
+      </c>
+      <c r="C30" s="10">
+        <v>3</v>
+      </c>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+    </row>
+    <row r="31" ht="128.05" customHeight="1">
+      <c r="A31" t="s" s="8">
+        <v>32</v>
+      </c>
+      <c r="B31" s="9">
+        <v>4</v>
+      </c>
+      <c r="C31" s="10">
+        <v>3</v>
+      </c>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+    </row>
+    <row r="32" ht="68.05" customHeight="1">
+      <c r="A32" t="s" s="8">
+        <v>33</v>
+      </c>
+      <c r="B32" s="9">
+        <v>4</v>
+      </c>
+      <c r="C32" s="10">
+        <v>4</v>
+      </c>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+    </row>
+    <row r="33" ht="140.05" customHeight="1">
+      <c r="A33" t="s" s="8">
+        <v>34</v>
+      </c>
+      <c r="B33" s="9">
+        <v>4</v>
+      </c>
+      <c r="C33" s="10">
+        <v>4</v>
+      </c>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+    </row>
+    <row r="34" ht="20.05" customHeight="1">
+      <c r="A34" s="13"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+    </row>
+    <row r="35" ht="20.05" customHeight="1">
+      <c r="A35" s="13"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+    </row>
+    <row r="36" ht="20.05" customHeight="1">
+      <c r="A36" s="13"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+    </row>
+    <row r="37" ht="20.05" customHeight="1">
+      <c r="A37" s="13"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+    </row>
+    <row r="38" ht="20.05" customHeight="1">
+      <c r="A38" s="13"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+    </row>
+    <row r="39" ht="20.05" customHeight="1">
+      <c r="A39" s="13"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+    </row>
+    <row r="40" ht="20.05" customHeight="1">
+      <c r="A40" s="13"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+    </row>
+    <row r="41" ht="20.05" customHeight="1">
+      <c r="A41" s="13"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/story_xlsx_files/44.xlsx
+++ b/story_xlsx_files/44.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
   <si>
     <t>storyText</t>
   </si>
@@ -26,7 +26,7 @@
     <t xml:space="preserve">Leon and  Ariana hurried into the classroom at the same time, and Leon did a double-take when he saw her. </t>
   </si>
   <si>
-    <t xml:space="preserve">This was his first day after transferring to a new college, so he didn't think that he knew anyone on campus, but he couldn't shake the nagging feeling  that he had seen her somewhere before. </t>
+    <t xml:space="preserve">This was his first day after transferring to this university, and he had assumed that he wouldn’t know anyone on campus, but he couldn't shake the nagging feeling  that he had seen her somewhere before. </t>
   </si>
   <si>
     <t>They were both a bit late, so they quickly slid into seats next to each other in the back of the small classroom.</t>
@@ -38,7 +38,7 @@
     <t>There were no windows in the room, since they were down in the sub-basement of the history department.</t>
   </si>
   <si>
-    <t>Leon could not stop looking over Ariana, trying to figure out where he had seen her before.</t>
+    <t>Leon, trying to figure out where he had seen her before, could not stop looking over at Ariana.</t>
   </si>
   <si>
     <t xml:space="preserve">Ariana was oblivious to Leon’s gaze and was only focused on getting ready for class. </t>
@@ -53,19 +53,19 @@
     <t>Today we will be talking about mummification, one of the most famous and often misunderstood customs in ancient Egyptian society.”</t>
   </si>
   <si>
-    <t xml:space="preserve"> Leon pulled out his notebook, trying to concentrate on the class.</t>
-  </si>
-  <si>
-    <t>Within a few minutes, though he found his attention wandering back to Ariana.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> He ripped off a corner of a page in his notebook, wrote a note and set it on her desk.</t>
-  </si>
-  <si>
-    <t>“Hi, sorry, you look really familiar," it read.</t>
-  </si>
-  <si>
-    <t>"Do I know you from somewhere?”</t>
+    <t>Leon pulled out his notebook and tried to concentrate on the class.</t>
+  </si>
+  <si>
+    <t>Within a few minutes though he found his attention wandering back to Ariana.</t>
+  </si>
+  <si>
+    <t>He decided to do something about his hunch so he ripped off a corner of a page in his notebook, wrote a note, and set it on her desk.</t>
+  </si>
+  <si>
+    <t>“Hi, sorry to distract you from mummies, but you look really familiar," it read.</t>
+  </si>
+  <si>
+    <t>It continued: “Do I know you from somewhere?”</t>
   </si>
   <si>
     <t xml:space="preserve">She looked at the note with surprise, and then turned to notice Leon for the first time. </t>
@@ -74,7 +74,7 @@
     <t>She instantly liked him when she saw him; he had very soft eyes and sharp features, a combination that made him seem  trustworthy and genuine.</t>
   </si>
   <si>
-    <t>He smiled at her and and she flashed him a smile back.</t>
+    <t>He smiled at her and she flashed him a smile back.</t>
   </si>
   <si>
     <t>Then she turned the note over to the back and started to write a reply.</t>
@@ -86,10 +86,10 @@
     <t>Not only was the mummification process itself a complicated affair, but there were also elaborate rituals before, during, and after death.</t>
   </si>
   <si>
-    <t xml:space="preserve">The practice required teams of experts with years of training, and took a total of 70 days to complete.” </t>
-  </si>
-  <si>
-    <t>Ariana passed the note back to Leon, on which she had replied, “No, but maybe my twin and I were separated at birth.”</t>
+    <t xml:space="preserve">The practice required teams of experts with years of training and took a total of 70 days to complete.” </t>
+  </si>
+  <si>
+    <t>Ariana passed the note back to Leon, and she had replied, “No, but maybe my twin and I were separated at birth.”</t>
   </si>
   <si>
     <t>They passed notes back and forth the whole class like they were back in high school.</t>
@@ -104,16 +104,19 @@
     <t>She wrote back on the slip of paper, “Pick me up at 6 in front of Patton Hall.”</t>
   </si>
   <si>
-    <t xml:space="preserve"> Then the professor ended the lecture and announced to the class that they would have their first quiz next class on Friday on mummification. </t>
-  </si>
-  <si>
-    <t>Everyone packed up and started heading out leave, as well as Sophie and Leon.</t>
+    <t xml:space="preserve">Then the professor ended the lecture and announced to the class that they would have their first quiz next class on Friday on mummification. </t>
+  </si>
+  <si>
+    <t>Everyone packed up and started heading out, as well as Sophie and Leon.</t>
   </si>
   <si>
     <t xml:space="preserve">They approached each other smiling, and Leon said, “Well it was great to meet you, again, or maybe not again, but regardless it was great to meet you.” </t>
   </si>
   <si>
-    <t xml:space="preserve">She replied, “Yes, I have to run to my next class, but I’ll see you later tonight.” </t>
+    <t>She replied, “Yes, it was.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have to run to my next class, but I’ll see you later tonight.” </t>
   </si>
   <si>
     <t xml:space="preserve">She waved as they parted ways outside of the door of the classroom, and Leon was still trying to figure out where he had seen her before as he watched her go. </t>
@@ -130,7 +133,7 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue"/>
+      <name val="Helvetica Neue Medium"/>
     </font>
     <font>
       <sz val="12"/>
@@ -326,7 +329,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
@@ -1417,7 +1420,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
@@ -1425,7 +1428,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.9375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
     <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1579,7 +1588,7 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" ht="116.05" customHeight="1">
+    <row r="11" ht="104.05" customHeight="1">
       <c r="A11" t="s" s="8">
         <v>12</v>
       </c>
@@ -1594,7 +1603,7 @@
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" ht="68.05" customHeight="1">
+    <row r="12" ht="56.05" customHeight="1">
       <c r="A12" t="s" s="8">
         <v>13</v>
       </c>
@@ -1609,7 +1618,7 @@
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" ht="80.05" customHeight="1">
+    <row r="13" ht="68.05" customHeight="1">
       <c r="A13" t="s" s="8">
         <v>14</v>
       </c>
@@ -1624,7 +1633,7 @@
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
     </row>
-    <row r="14" ht="68.05" customHeight="1">
+    <row r="14" ht="104.05" customHeight="1">
       <c r="A14" t="s" s="8">
         <v>15</v>
       </c>
@@ -1639,7 +1648,7 @@
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
     </row>
-    <row r="15" ht="44.05" customHeight="1">
+    <row r="15" ht="68.05" customHeight="1">
       <c r="A15" t="s" s="8">
         <v>16</v>
       </c>
@@ -1699,7 +1708,7 @@
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
     </row>
-    <row r="19" ht="56.05" customHeight="1">
+    <row r="19" ht="44.05" customHeight="1">
       <c r="A19" t="s" s="8">
         <v>20</v>
       </c>
@@ -1729,7 +1738,7 @@
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
     </row>
-    <row r="21" ht="128.05" customHeight="1">
+    <row r="21" ht="116.05" customHeight="1">
       <c r="A21" t="s" s="8">
         <v>22</v>
       </c>
@@ -1744,7 +1753,7 @@
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
     </row>
-    <row r="22" ht="116.05" customHeight="1">
+    <row r="22" ht="104.05" customHeight="1">
       <c r="A22" t="s" s="8">
         <v>23</v>
       </c>
@@ -1759,7 +1768,7 @@
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
     </row>
-    <row r="23" ht="92.05" customHeight="1">
+    <row r="23" ht="80.05" customHeight="1">
       <c r="A23" t="s" s="8">
         <v>24</v>
       </c>
@@ -1774,7 +1783,7 @@
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
     </row>
-    <row r="24" ht="104.05" customHeight="1">
+    <row r="24" ht="92.05" customHeight="1">
       <c r="A24" t="s" s="8">
         <v>25</v>
       </c>
@@ -1789,7 +1798,7 @@
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
     </row>
-    <row r="25" ht="80.05" customHeight="1">
+    <row r="25" ht="68.05" customHeight="1">
       <c r="A25" t="s" s="8">
         <v>26</v>
       </c>
@@ -1849,7 +1858,7 @@
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
     </row>
-    <row r="29" ht="116.05" customHeight="1">
+    <row r="29" ht="104.05" customHeight="1">
       <c r="A29" t="s" s="8">
         <v>30</v>
       </c>
@@ -1879,7 +1888,7 @@
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
     </row>
-    <row r="31" ht="128.05" customHeight="1">
+    <row r="31" ht="116.05" customHeight="1">
       <c r="A31" t="s" s="8">
         <v>32</v>
       </c>
@@ -1894,7 +1903,7 @@
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
     </row>
-    <row r="32" ht="68.05" customHeight="1">
+    <row r="32" ht="32.05" customHeight="1">
       <c r="A32" t="s" s="8">
         <v>33</v>
       </c>
@@ -1909,7 +1918,7 @@
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
     </row>
-    <row r="33" ht="140.05" customHeight="1">
+    <row r="33" ht="56.05" customHeight="1">
       <c r="A33" t="s" s="8">
         <v>34</v>
       </c>
@@ -1924,10 +1933,16 @@
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
     </row>
-    <row r="34" ht="20.05" customHeight="1">
-      <c r="A34" s="13"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="11"/>
+    <row r="34" ht="116.05" customHeight="1">
+      <c r="A34" t="s" s="8">
+        <v>35</v>
+      </c>
+      <c r="B34" s="9">
+        <v>4</v>
+      </c>
+      <c r="C34" s="10">
+        <v>4</v>
+      </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
@@ -1996,6 +2011,15 @@
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
     </row>
+    <row r="42" ht="20.05" customHeight="1">
+      <c r="A42" s="13"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+    </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/story_xlsx_files/44.xlsx
+++ b/story_xlsx_files/44.xlsx
@@ -44,10 +44,10 @@
     <t xml:space="preserve">Ariana was oblivious to Leon’s gaze and was only focused on getting ready for class. </t>
   </si>
   <si>
-    <t>“Good afternoon class," the professor began.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Welcome to Egyptian Cultural Studies. </t>
+    <t>“Good afternoon class,” the professor began.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“Welcome to Egyptian Cultural Studies. </t>
   </si>
   <si>
     <t>Today we will be talking about mummification, one of the most famous and often misunderstood customs in ancient Egyptian society.”</t>
@@ -133,7 +133,7 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue Medium"/>
+      <name val="Helvetica Neue"/>
     </font>
     <font>
       <sz val="12"/>
@@ -329,7 +329,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
@@ -1429,12 +1429,7 @@
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="16.9375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
+    <col min="2" max="7" width="16.3516" style="1" customWidth="1"/>
     <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/story_xlsx_files/44.xlsx
+++ b/story_xlsx_files/44.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
   <si>
     <t>storyText</t>
   </si>
@@ -21,6 +21,9 @@
   </si>
   <si>
     <t>socialEvent</t>
+  </si>
+  <si>
+    <t>story</t>
   </si>
   <si>
     <t xml:space="preserve">Leon and  Ariana hurried into the classroom at the same time, and Leon did a double-take when he saw her. </t>
@@ -133,7 +136,7 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue"/>
+      <name val="Helvetica Neue Medium"/>
     </font>
     <font>
       <sz val="12"/>
@@ -329,7 +332,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
@@ -1429,7 +1432,12 @@
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="16.9375" style="1" customWidth="1"/>
-    <col min="2" max="7" width="16.3516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
     <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1443,14 +1451,16 @@
       <c r="C1" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
+      <c r="D1" t="s" s="2">
+        <v>3</v>
+      </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
     <row r="2" ht="92.25" customHeight="1">
       <c r="A2" t="s" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -1458,14 +1468,16 @@
       <c r="C2" s="6">
         <v>1</v>
       </c>
-      <c r="D2" s="7"/>
+      <c r="D2" s="6">
+        <v>44</v>
+      </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
     <row r="3" ht="152.05" customHeight="1">
       <c r="A3" t="s" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="9">
         <v>1</v>
@@ -1480,7 +1492,7 @@
     </row>
     <row r="4" ht="92.05" customHeight="1">
       <c r="A4" t="s" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="9">
         <v>1</v>
@@ -1495,7 +1507,7 @@
     </row>
     <row r="5" ht="128.05" customHeight="1">
       <c r="A5" t="s" s="8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="9">
         <v>1</v>
@@ -1510,7 +1522,7 @@
     </row>
     <row r="6" ht="92.05" customHeight="1">
       <c r="A6" t="s" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" s="9">
         <v>1</v>
@@ -1525,7 +1537,7 @@
     </row>
     <row r="7" ht="80.05" customHeight="1">
       <c r="A7" t="s" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" s="9">
         <v>1</v>
@@ -1540,7 +1552,7 @@
     </row>
     <row r="8" ht="68.05" customHeight="1">
       <c r="A8" t="s" s="8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" s="9">
         <v>1</v>
@@ -1555,7 +1567,7 @@
     </row>
     <row r="9" ht="44.05" customHeight="1">
       <c r="A9" t="s" s="8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" s="9">
         <v>2</v>
@@ -1570,7 +1582,7 @@
     </row>
     <row r="10" ht="44.05" customHeight="1">
       <c r="A10" t="s" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" s="9">
         <v>2</v>
@@ -1585,7 +1597,7 @@
     </row>
     <row r="11" ht="104.05" customHeight="1">
       <c r="A11" t="s" s="8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" s="9">
         <v>2</v>
@@ -1600,7 +1612,7 @@
     </row>
     <row r="12" ht="56.05" customHeight="1">
       <c r="A12" t="s" s="8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" s="9">
         <v>2</v>
@@ -1615,7 +1627,7 @@
     </row>
     <row r="13" ht="68.05" customHeight="1">
       <c r="A13" t="s" s="8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13" s="9">
         <v>2</v>
@@ -1630,7 +1642,7 @@
     </row>
     <row r="14" ht="104.05" customHeight="1">
       <c r="A14" t="s" s="8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14" s="9">
         <v>2</v>
@@ -1645,7 +1657,7 @@
     </row>
     <row r="15" ht="68.05" customHeight="1">
       <c r="A15" t="s" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" s="9">
         <v>2</v>
@@ -1660,7 +1672,7 @@
     </row>
     <row r="16" ht="44.05" customHeight="1">
       <c r="A16" t="s" s="8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B16" s="9">
         <v>2</v>
@@ -1675,7 +1687,7 @@
     </row>
     <row r="17" ht="68.05" customHeight="1">
       <c r="A17" t="s" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17" s="9">
         <v>2</v>
@@ -1690,7 +1702,7 @@
     </row>
     <row r="18" ht="116.05" customHeight="1">
       <c r="A18" t="s" s="8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B18" s="9">
         <v>2</v>
@@ -1705,7 +1717,7 @@
     </row>
     <row r="19" ht="44.05" customHeight="1">
       <c r="A19" t="s" s="8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B19" s="9">
         <v>2</v>
@@ -1720,7 +1732,7 @@
     </row>
     <row r="20" ht="68.05" customHeight="1">
       <c r="A20" t="s" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B20" s="9">
         <v>2</v>
@@ -1735,7 +1747,7 @@
     </row>
     <row r="21" ht="116.05" customHeight="1">
       <c r="A21" t="s" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B21" s="9">
         <v>3</v>
@@ -1750,7 +1762,7 @@
     </row>
     <row r="22" ht="104.05" customHeight="1">
       <c r="A22" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22" s="9">
         <v>3</v>
@@ -1765,7 +1777,7 @@
     </row>
     <row r="23" ht="80.05" customHeight="1">
       <c r="A23" t="s" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B23" s="9">
         <v>3</v>
@@ -1780,7 +1792,7 @@
     </row>
     <row r="24" ht="92.05" customHeight="1">
       <c r="A24" t="s" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B24" s="9">
         <v>3</v>
@@ -1795,7 +1807,7 @@
     </row>
     <row r="25" ht="68.05" customHeight="1">
       <c r="A25" t="s" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B25" s="9">
         <v>3</v>
@@ -1810,7 +1822,7 @@
     </row>
     <row r="26" ht="68.05" customHeight="1">
       <c r="A26" t="s" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B26" s="9">
         <v>3</v>
@@ -1825,7 +1837,7 @@
     </row>
     <row r="27" ht="56.35" customHeight="1">
       <c r="A27" t="s" s="12">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B27" s="9">
         <v>3</v>
@@ -1840,7 +1852,7 @@
     </row>
     <row r="28" ht="56.35" customHeight="1">
       <c r="A28" t="s" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B28" s="9">
         <v>3</v>
@@ -1855,7 +1867,7 @@
     </row>
     <row r="29" ht="104.05" customHeight="1">
       <c r="A29" t="s" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B29" s="9">
         <v>4</v>
@@ -1870,7 +1882,7 @@
     </row>
     <row r="30" ht="68.05" customHeight="1">
       <c r="A30" t="s" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B30" s="9">
         <v>4</v>
@@ -1885,7 +1897,7 @@
     </row>
     <row r="31" ht="116.05" customHeight="1">
       <c r="A31" t="s" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B31" s="9">
         <v>4</v>
@@ -1900,7 +1912,7 @@
     </row>
     <row r="32" ht="32.05" customHeight="1">
       <c r="A32" t="s" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B32" s="9">
         <v>4</v>
@@ -1915,7 +1927,7 @@
     </row>
     <row r="33" ht="56.05" customHeight="1">
       <c r="A33" t="s" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B33" s="9">
         <v>4</v>
@@ -1930,7 +1942,7 @@
     </row>
     <row r="34" ht="116.05" customHeight="1">
       <c r="A34" t="s" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B34" s="9">
         <v>4</v>

--- a/story_xlsx_files/44.xlsx
+++ b/story_xlsx_files/44.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
   <si>
     <t>storyText</t>
   </si>
@@ -26,19 +26,19 @@
     <t>story</t>
   </si>
   <si>
-    <t xml:space="preserve">Leon and  Ariana hurried into the classroom at the same time, and Leon did a double-take when he saw her. </t>
+    <t xml:space="preserve">Leon and Ariana hurried into the classroom at the same time, and Leon did a double-take when he saw her, almost dropping the eraser he had in his hand. </t>
   </si>
   <si>
     <t xml:space="preserve">This was his first day after transferring to this university, and he had assumed that he wouldn’t know anyone on campus, but he couldn't shake the nagging feeling  that he had seen her somewhere before. </t>
   </si>
   <si>
-    <t>They were both a bit late, so they quickly slid into seats next to each other in the back of the small classroom.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This room was usually used for small meetings, but had been rearranged with the table pushed to the side and chairs set up in rows to face the projector screen. </t>
-  </si>
-  <si>
-    <t>There were no windows in the room, since they were down in the sub-basement of the history department.</t>
+    <t>They were both a bit late, so they quickly slid into seats next to each other in the back of the class.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">They were in a small classroom with rows of chairs with foldable desks facing the speaker’s podium and a blackboard on wheels. </t>
+  </si>
+  <si>
+    <t>There were no windows in the room, since they were down in the basement of the history department.</t>
   </si>
   <si>
     <t>Leon, trying to figure out where he had seen her before, could not stop looking over at Ariana.</t>
@@ -50,7 +50,7 @@
     <t>“Good afternoon class,” the professor began.</t>
   </si>
   <si>
-    <t xml:space="preserve">“Welcome to Egyptian Cultural Studies. </t>
+    <t xml:space="preserve">“Welcome to History of Egypt. </t>
   </si>
   <si>
     <t>Today we will be talking about mummification, one of the most famous and often misunderstood customs in ancient Egyptian society.”</t>
@@ -65,7 +65,7 @@
     <t>He decided to do something about his hunch so he ripped off a corner of a page in his notebook, wrote a note, and set it on her desk.</t>
   </si>
   <si>
-    <t>“Hi, sorry to distract you from mummies, but you look really familiar," it read.</t>
+    <t>“Are you from LA?” it read, “Sorry to distract you from mummies, but you look really familiar.”</t>
   </si>
   <si>
     <t>It continued: “Do I know you from somewhere?”</t>
@@ -98,13 +98,13 @@
     <t>They passed notes back and forth the whole class like they were back in high school.</t>
   </si>
   <si>
-    <t xml:space="preserve">Near the end of the lecture, Leon wrote, “Would you like to go to dinner tonight?” </t>
+    <t xml:space="preserve">Near the end of the lecture, Leon wrote, “Would you like to go on a walk this evening?” </t>
   </si>
   <si>
     <t>Ariana read the note, and looked at him and nodded her head</t>
   </si>
   <si>
-    <t>She wrote back on the slip of paper, “Pick me up at 6 in front of Patton Hall.”</t>
+    <t>She wrote back on the slip of paper, “Let’s meet at 8 in front of Patton Hall.”</t>
   </si>
   <si>
     <t xml:space="preserve">Then the professor ended the lecture and announced to the class that they would have their first quiz next class on Friday on mummification. </t>
@@ -116,13 +116,16 @@
     <t xml:space="preserve">They approached each other smiling, and Leon said, “Well it was great to meet you, again, or maybe not again, but regardless it was great to meet you.” </t>
   </si>
   <si>
-    <t>She replied, “Yes, it was.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I have to run to my next class, but I’ll see you later tonight.” </t>
-  </si>
-  <si>
-    <t xml:space="preserve">She waved as they parted ways outside of the door of the classroom, and Leon was still trying to figure out where he had seen her before as he watched her go. </t>
+    <t>She replied, “Yes, it was.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">She looked at the clock which read noon and, shocked, headed for the door saying, “I have to run to my next class, but I’ll see you later tonight!” </t>
+  </si>
+  <si>
+    <t xml:space="preserve">She waved as they parted ways, and Leon was still trying to figure out where he had seen her before as he watched her go. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">He figured that he’d ask about it more later during their walk. </t>
   </si>
 </sst>
 </file>
@@ -136,7 +139,7 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue Medium"/>
+      <name val="Helvetica Neue"/>
     </font>
     <font>
       <sz val="12"/>
@@ -332,7 +335,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
@@ -1432,12 +1435,7 @@
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="16.9375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
+    <col min="2" max="7" width="16.3516" style="1" customWidth="1"/>
     <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1458,7 +1456,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" ht="92.25" customHeight="1">
+    <row r="2" ht="128.25" customHeight="1">
       <c r="A2" t="s" s="4">
         <v>4</v>
       </c>
@@ -1490,7 +1488,7 @@
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" ht="92.05" customHeight="1">
+    <row r="4" ht="80.05" customHeight="1">
       <c r="A4" t="s" s="8">
         <v>6</v>
       </c>
@@ -1505,7 +1503,7 @@
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" ht="128.05" customHeight="1">
+    <row r="5" ht="104.05" customHeight="1">
       <c r="A5" t="s" s="8">
         <v>7</v>
       </c>
@@ -1580,7 +1578,7 @@
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" ht="44.05" customHeight="1">
+    <row r="10" ht="32.05" customHeight="1">
       <c r="A10" t="s" s="8">
         <v>12</v>
       </c>
@@ -1655,7 +1653,7 @@
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
     </row>
-    <row r="15" ht="68.05" customHeight="1">
+    <row r="15" ht="80.05" customHeight="1">
       <c r="A15" t="s" s="8">
         <v>17</v>
       </c>
@@ -1918,14 +1916,14 @@
         <v>4</v>
       </c>
       <c r="C32" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
     </row>
-    <row r="33" ht="56.05" customHeight="1">
+    <row r="33" ht="116.05" customHeight="1">
       <c r="A33" t="s" s="8">
         <v>35</v>
       </c>
@@ -1940,7 +1938,7 @@
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
     </row>
-    <row r="34" ht="116.05" customHeight="1">
+    <row r="34" ht="92.05" customHeight="1">
       <c r="A34" t="s" s="8">
         <v>36</v>
       </c>
@@ -1955,10 +1953,16 @@
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
     </row>
-    <row r="35" ht="20.05" customHeight="1">
-      <c r="A35" s="13"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="11"/>
+    <row r="35" ht="56.05" customHeight="1">
+      <c r="A35" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="B35" s="9">
+        <v>4</v>
+      </c>
+      <c r="C35" s="10">
+        <v>4</v>
+      </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>

--- a/story_xlsx_files/44.xlsx
+++ b/story_xlsx_files/44.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
   <si>
     <t>storyText</t>
   </si>
@@ -26,13 +26,10 @@
     <t>story</t>
   </si>
   <si>
-    <t xml:space="preserve">Leon and Ariana hurried into the classroom at the same time, and Leon did a double-take when he saw her, almost dropping the eraser he had in his hand. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">This was his first day after transferring to this university, and he had assumed that he wouldn’t know anyone on campus, but he couldn't shake the nagging feeling  that he had seen her somewhere before. </t>
-  </si>
-  <si>
-    <t>They were both a bit late, so they quickly slid into seats next to each other in the back of the class.</t>
+    <t xml:space="preserve">Ariana hurried into the classroom, and Leon did a double-take when he saw her, almost dropping the eraser he had in his hand. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This was his first day in college, and he had assumed that he wouldn’t know anyone on campus, but he couldn't shake the nagging feeling that he had seen her somewhere before. </t>
   </si>
   <si>
     <t xml:space="preserve">They were in a small classroom with rows of chairs with foldable desks facing the speaker’s podium and a blackboard on wheels. </t>
@@ -56,25 +53,19 @@
     <t>Today we will be talking about mummification, one of the most famous and often misunderstood customs in ancient Egyptian society.”</t>
   </si>
   <si>
-    <t>Leon pulled out his notebook and tried to concentrate on the class.</t>
-  </si>
-  <si>
-    <t>Within a few minutes though he found his attention wandering back to Ariana.</t>
-  </si>
-  <si>
-    <t>He decided to do something about his hunch so he ripped off a corner of a page in his notebook, wrote a note, and set it on her desk.</t>
+    <t xml:space="preserve">Leon and Ariana were taking notes. </t>
+  </si>
+  <si>
+    <t>Within a few minutes, he found his attention wandering from the lecture and back to Ariana, and he decided to do something about it by putting a note on her desk.</t>
   </si>
   <si>
     <t>“Are you from LA?” it read, “Sorry to distract you from mummies, but you look really familiar.”</t>
   </si>
   <si>
-    <t>It continued: “Do I know you from somewhere?”</t>
-  </si>
-  <si>
     <t xml:space="preserve">She looked at the note with surprise, and then turned to notice Leon for the first time. </t>
   </si>
   <si>
-    <t>She instantly liked him when she saw him; he had very soft eyes and sharp features, a combination that made him seem  trustworthy and genuine.</t>
+    <t>She instantly liked him when she saw him; she thought he looked  trustworthy and genuine.</t>
   </si>
   <si>
     <t>He smiled at her and she flashed him a smile back.</t>
@@ -83,7 +74,10 @@
     <t>Then she turned the note over to the back and started to write a reply.</t>
   </si>
   <si>
-    <t>Meanwhile the professor continued, “One may well question why the ancient Egyptians spent so much time and effort on their funerary practices.</t>
+    <t>Ariana passed the note back to Leon, and she had replied, “No, but maybe my twin and I were separated at birth.”</t>
+  </si>
+  <si>
+    <t>The professor continued, “One may well question why the ancient Egyptians spent so much time and effort on their funerary practices.</t>
   </si>
   <si>
     <t>Not only was the mummification process itself a complicated affair, but there were also elaborate rituals before, during, and after death.</t>
@@ -92,40 +86,28 @@
     <t xml:space="preserve">The practice required teams of experts with years of training and took a total of 70 days to complete.” </t>
   </si>
   <si>
-    <t>Ariana passed the note back to Leon, and she had replied, “No, but maybe my twin and I were separated at birth.”</t>
-  </si>
-  <si>
-    <t>They passed notes back and forth the whole class like they were back in high school.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Near the end of the lecture, Leon wrote, “Would you like to go on a walk this evening?” </t>
-  </si>
-  <si>
-    <t>Ariana read the note, and looked at him and nodded her head</t>
-  </si>
-  <si>
-    <t>She wrote back on the slip of paper, “Let’s meet at 8 in front of Patton Hall.”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Then the professor ended the lecture and announced to the class that they would have their first quiz next class on Friday on mummification. </t>
-  </si>
-  <si>
-    <t>Everyone packed up and started heading out, as well as Sophie and Leon.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">They approached each other smiling, and Leon said, “Well it was great to meet you, again, or maybe not again, but regardless it was great to meet you.” </t>
-  </si>
-  <si>
-    <t>She replied, “Yes, it was.”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">She looked at the clock which read noon and, shocked, headed for the door saying, “I have to run to my next class, but I’ll see you later tonight!” </t>
-  </si>
-  <si>
-    <t xml:space="preserve">She waved as they parted ways, and Leon was still trying to figure out where he had seen her before as he watched her go. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">He figured that he’d ask about it more later during their walk. </t>
+    <t>They passed notes back and forth the whole class like they were in high school, and Leon wrote in one, “Would you like to go on a walk this evening?”</t>
+  </si>
+  <si>
+    <t>When Ariana read this, she looked at him and nodded her head</t>
+  </si>
+  <si>
+    <t>She wrote back on the slip of paper, “Let’s meet at 8 in front of my dorm, Patton Hall.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The professor ended the lecture and announced to the class that they would have their first quiz next class on Friday on mummification. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Everyone packed up and filed out of the classroom except for Ariana and Leon. </t>
+  </si>
+  <si>
+    <t>Sophie spoke first, “I have to go to my next class”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">She looked at the clock which read noon and, shocked, headed for the door saying, “I should run, but I’ll see you later tonight!” </t>
+  </si>
+  <si>
+    <t xml:space="preserve">She waved as she ran out the door, and Leon was still pondering where he had seen her before, even more convinced they had already met after hearing her voice. </t>
   </si>
 </sst>
 </file>
@@ -1426,7 +1408,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
@@ -1456,7 +1438,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" ht="128.25" customHeight="1">
+    <row r="2" ht="104.25" customHeight="1">
       <c r="A2" t="s" s="4">
         <v>4</v>
       </c>
@@ -1473,7 +1455,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" ht="152.05" customHeight="1">
+    <row r="3" ht="140.05" customHeight="1">
       <c r="A3" t="s" s="8">
         <v>5</v>
       </c>
@@ -1488,7 +1470,7 @@
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" ht="80.05" customHeight="1">
+    <row r="4" ht="104.05" customHeight="1">
       <c r="A4" t="s" s="8">
         <v>6</v>
       </c>
@@ -1503,7 +1485,7 @@
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" ht="104.05" customHeight="1">
+    <row r="5" ht="92.05" customHeight="1">
       <c r="A5" t="s" s="8">
         <v>7</v>
       </c>
@@ -1518,7 +1500,7 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" ht="92.05" customHeight="1">
+    <row r="6" ht="80.05" customHeight="1">
       <c r="A6" t="s" s="8">
         <v>8</v>
       </c>
@@ -1533,7 +1515,7 @@
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" ht="80.05" customHeight="1">
+    <row r="7" ht="68.05" customHeight="1">
       <c r="A7" t="s" s="8">
         <v>9</v>
       </c>
@@ -1548,12 +1530,12 @@
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" ht="68.05" customHeight="1">
+    <row r="8" ht="44.05" customHeight="1">
       <c r="A8" t="s" s="8">
         <v>10</v>
       </c>
       <c r="B8" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" s="10">
         <v>1</v>
@@ -1563,7 +1545,7 @@
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" ht="44.05" customHeight="1">
+    <row r="9" ht="32.05" customHeight="1">
       <c r="A9" t="s" s="8">
         <v>11</v>
       </c>
@@ -1578,7 +1560,7 @@
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" ht="32.05" customHeight="1">
+    <row r="10" ht="104.05" customHeight="1">
       <c r="A10" t="s" s="8">
         <v>12</v>
       </c>
@@ -1593,7 +1575,7 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" ht="104.05" customHeight="1">
+    <row r="11" ht="32.05" customHeight="1">
       <c r="A11" t="s" s="8">
         <v>13</v>
       </c>
@@ -1608,7 +1590,7 @@
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" ht="56.05" customHeight="1">
+    <row r="12" ht="128.05" customHeight="1">
       <c r="A12" t="s" s="8">
         <v>14</v>
       </c>
@@ -1616,14 +1598,14 @@
         <v>2</v>
       </c>
       <c r="C12" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" ht="68.05" customHeight="1">
+    <row r="13" ht="80.05" customHeight="1">
       <c r="A13" t="s" s="8">
         <v>15</v>
       </c>
@@ -1631,14 +1613,14 @@
         <v>2</v>
       </c>
       <c r="C13" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
     </row>
-    <row r="14" ht="104.05" customHeight="1">
+    <row r="14" ht="68.05" customHeight="1">
       <c r="A14" t="s" s="8">
         <v>16</v>
       </c>
@@ -1646,7 +1628,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
@@ -1698,12 +1680,12 @@
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
     </row>
-    <row r="18" ht="116.05" customHeight="1">
+    <row r="18" ht="92.05" customHeight="1">
       <c r="A18" t="s" s="8">
         <v>20</v>
       </c>
       <c r="B18" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C18" s="10">
         <v>2</v>
@@ -1713,12 +1695,12 @@
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
     </row>
-    <row r="19" ht="44.05" customHeight="1">
+    <row r="19" ht="104.05" customHeight="1">
       <c r="A19" t="s" s="8">
         <v>21</v>
       </c>
       <c r="B19" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19" s="10">
         <v>2</v>
@@ -1728,12 +1710,12 @@
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" ht="68.05" customHeight="1">
+    <row r="20" ht="104.05" customHeight="1">
       <c r="A20" t="s" s="8">
         <v>22</v>
       </c>
       <c r="B20" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C20" s="10">
         <v>2</v>
@@ -1743,7 +1725,7 @@
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
     </row>
-    <row r="21" ht="116.05" customHeight="1">
+    <row r="21" ht="80.05" customHeight="1">
       <c r="A21" t="s" s="8">
         <v>23</v>
       </c>
@@ -1758,7 +1740,7 @@
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
     </row>
-    <row r="22" ht="104.05" customHeight="1">
+    <row r="22" ht="116.05" customHeight="1">
       <c r="A22" t="s" s="8">
         <v>24</v>
       </c>
@@ -1773,45 +1755,45 @@
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
     </row>
-    <row r="23" ht="80.05" customHeight="1">
-      <c r="A23" t="s" s="8">
+    <row r="23" ht="56.35" customHeight="1">
+      <c r="A23" t="s" s="12">
         <v>25</v>
       </c>
       <c r="B23" s="9">
         <v>3</v>
       </c>
       <c r="C23" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
     </row>
-    <row r="24" ht="92.05" customHeight="1">
-      <c r="A24" t="s" s="8">
+    <row r="24" ht="68.35" customHeight="1">
+      <c r="A24" t="s" s="12">
         <v>26</v>
       </c>
       <c r="B24" s="9">
         <v>3</v>
       </c>
       <c r="C24" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
     </row>
-    <row r="25" ht="68.05" customHeight="1">
+    <row r="25" ht="104.05" customHeight="1">
       <c r="A25" t="s" s="8">
         <v>27</v>
       </c>
       <c r="B25" s="9">
+        <v>4</v>
+      </c>
+      <c r="C25" s="10">
         <v>3</v>
-      </c>
-      <c r="C25" s="10">
-        <v>2</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
@@ -1823,7 +1805,7 @@
         <v>28</v>
       </c>
       <c r="B26" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C26" s="10">
         <v>3</v>
@@ -1833,37 +1815,37 @@
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" ht="56.35" customHeight="1">
-      <c r="A27" t="s" s="12">
+    <row r="27" ht="44.05" customHeight="1">
+      <c r="A27" t="s" s="8">
         <v>29</v>
       </c>
       <c r="B27" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C27" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" ht="56.35" customHeight="1">
-      <c r="A28" t="s" s="12">
+    <row r="28" ht="104.05" customHeight="1">
+      <c r="A28" t="s" s="8">
         <v>30</v>
       </c>
       <c r="B28" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C28" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
     </row>
-    <row r="29" ht="104.05" customHeight="1">
+    <row r="29" ht="116.05" customHeight="1">
       <c r="A29" t="s" s="8">
         <v>31</v>
       </c>
@@ -1871,98 +1853,62 @@
         <v>4</v>
       </c>
       <c r="C29" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
     </row>
-    <row r="30" ht="68.05" customHeight="1">
-      <c r="A30" t="s" s="8">
-        <v>32</v>
-      </c>
-      <c r="B30" s="9">
-        <v>4</v>
-      </c>
-      <c r="C30" s="10">
-        <v>3</v>
-      </c>
+    <row r="30" ht="20.05" customHeight="1">
+      <c r="A30" s="13"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="11"/>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
     </row>
-    <row r="31" ht="116.05" customHeight="1">
-      <c r="A31" t="s" s="8">
-        <v>33</v>
-      </c>
-      <c r="B31" s="9">
-        <v>4</v>
-      </c>
-      <c r="C31" s="10">
-        <v>3</v>
-      </c>
+    <row r="31" ht="20.05" customHeight="1">
+      <c r="A31" s="13"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="11"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
     </row>
-    <row r="32" ht="32.05" customHeight="1">
-      <c r="A32" t="s" s="8">
-        <v>34</v>
-      </c>
-      <c r="B32" s="9">
-        <v>4</v>
-      </c>
-      <c r="C32" s="10">
-        <v>3</v>
-      </c>
+    <row r="32" ht="20.05" customHeight="1">
+      <c r="A32" s="13"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="11"/>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
     </row>
-    <row r="33" ht="116.05" customHeight="1">
-      <c r="A33" t="s" s="8">
-        <v>35</v>
-      </c>
-      <c r="B33" s="9">
-        <v>4</v>
-      </c>
-      <c r="C33" s="10">
-        <v>4</v>
-      </c>
+    <row r="33" ht="20.05" customHeight="1">
+      <c r="A33" s="13"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="11"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
     </row>
-    <row r="34" ht="92.05" customHeight="1">
-      <c r="A34" t="s" s="8">
-        <v>36</v>
-      </c>
-      <c r="B34" s="9">
-        <v>4</v>
-      </c>
-      <c r="C34" s="10">
-        <v>4</v>
-      </c>
+    <row r="34" ht="20.05" customHeight="1">
+      <c r="A34" s="13"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="11"/>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
     </row>
-    <row r="35" ht="56.05" customHeight="1">
-      <c r="A35" t="s" s="8">
-        <v>37</v>
-      </c>
-      <c r="B35" s="9">
-        <v>4</v>
-      </c>
-      <c r="C35" s="10">
-        <v>4</v>
-      </c>
+    <row r="35" ht="20.05" customHeight="1">
+      <c r="A35" s="13"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="11"/>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
@@ -1977,60 +1923,6 @@
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
     </row>
-    <row r="37" ht="20.05" customHeight="1">
-      <c r="A37" s="13"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-    </row>
-    <row r="38" ht="20.05" customHeight="1">
-      <c r="A38" s="13"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-    </row>
-    <row r="39" ht="20.05" customHeight="1">
-      <c r="A39" s="13"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-    </row>
-    <row r="40" ht="20.05" customHeight="1">
-      <c r="A40" s="13"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-    </row>
-    <row r="41" ht="20.05" customHeight="1">
-      <c r="A41" s="13"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-    </row>
-    <row r="42" ht="20.05" customHeight="1">
-      <c r="A42" s="13"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-    </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/story_xlsx_files/44.xlsx
+++ b/story_xlsx_files/44.xlsx
@@ -121,7 +121,7 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue"/>
+      <name val="Helvetica Neue Medium"/>
     </font>
     <font>
       <sz val="12"/>
@@ -317,7 +317,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
@@ -1417,7 +1417,12 @@
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="16.9375" style="1" customWidth="1"/>
-    <col min="2" max="7" width="16.3516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
     <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1685,7 +1690,7 @@
         <v>20</v>
       </c>
       <c r="B18" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C18" s="10">
         <v>2</v>
@@ -1748,7 +1753,7 @@
         <v>3</v>
       </c>
       <c r="C22" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>

--- a/story_xlsx_files/44.xlsx
+++ b/story_xlsx_files/44.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
   <si>
     <t>storyText</t>
   </si>
@@ -56,7 +56,7 @@
     <t xml:space="preserve">Leon and Ariana were taking notes. </t>
   </si>
   <si>
-    <t>Within a few minutes, he found his attention wandering from the lecture and back to Ariana, and he decided to do something about it by putting a note on her desk.</t>
+    <t>Within a few minutes, Leon found his attention wandering from the lecture and back to Ariana, and he decided to do something about it by putting a note on her desk.</t>
   </si>
   <si>
     <t>“Are you from LA?” it read, “Sorry to distract you from mummies, but you look really familiar.”</t>
@@ -65,13 +65,7 @@
     <t xml:space="preserve">She looked at the note with surprise, and then turned to notice Leon for the first time. </t>
   </si>
   <si>
-    <t>She instantly liked him when she saw him; she thought he looked  trustworthy and genuine.</t>
-  </si>
-  <si>
-    <t>He smiled at her and she flashed him a smile back.</t>
-  </si>
-  <si>
-    <t>Then she turned the note over to the back and started to write a reply.</t>
+    <t>She instantly liked him when she saw him; she thought he looked trustworthy and genuine.</t>
   </si>
   <si>
     <t>Ariana passed the note back to Leon, and she had replied, “No, but maybe my twin and I were separated at birth.”</t>
@@ -101,13 +95,13 @@
     <t xml:space="preserve">Everyone packed up and filed out of the classroom except for Ariana and Leon. </t>
   </si>
   <si>
-    <t>Sophie spoke first, “I have to go to my next class”</t>
+    <t>Ariana spoke first, “I have to go to my next class”</t>
   </si>
   <si>
     <t xml:space="preserve">She looked at the clock which read noon and, shocked, headed for the door saying, “I should run, but I’ll see you later tonight!” </t>
   </si>
   <si>
-    <t xml:space="preserve">She waved as she ran out the door, and Leon was still pondering where he had seen her before, even more convinced they had already met after hearing her voice. </t>
+    <t>She waved as she ran out the door, and Leon was still pondering where he had seen her before, even more convinced that they had met before having heard her voice.</t>
   </si>
 </sst>
 </file>
@@ -121,7 +115,7 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue Medium"/>
+      <name val="Helvetica Neue"/>
     </font>
     <font>
       <sz val="12"/>
@@ -317,7 +311,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
@@ -1408,7 +1402,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
@@ -1417,12 +1411,7 @@
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="16.9375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
+    <col min="2" max="7" width="16.3516" style="1" customWidth="1"/>
     <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1655,7 +1644,7 @@
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
     </row>
-    <row r="16" ht="44.05" customHeight="1">
+    <row r="16" ht="92.05" customHeight="1">
       <c r="A16" t="s" s="8">
         <v>18</v>
       </c>
@@ -1670,12 +1659,12 @@
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" ht="68.05" customHeight="1">
+    <row r="17" ht="104.05" customHeight="1">
       <c r="A17" t="s" s="8">
         <v>19</v>
       </c>
       <c r="B17" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17" s="10">
         <v>2</v>
@@ -1685,12 +1674,12 @@
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
     </row>
-    <row r="18" ht="92.05" customHeight="1">
+    <row r="18" ht="104.05" customHeight="1">
       <c r="A18" t="s" s="8">
         <v>20</v>
       </c>
       <c r="B18" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C18" s="10">
         <v>2</v>
@@ -1700,7 +1689,7 @@
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
     </row>
-    <row r="19" ht="104.05" customHeight="1">
+    <row r="19" ht="80.05" customHeight="1">
       <c r="A19" t="s" s="8">
         <v>21</v>
       </c>
@@ -1715,7 +1704,7 @@
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" ht="104.05" customHeight="1">
+    <row r="20" ht="116.05" customHeight="1">
       <c r="A20" t="s" s="8">
         <v>22</v>
       </c>
@@ -1723,30 +1712,30 @@
         <v>3</v>
       </c>
       <c r="C20" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
     </row>
-    <row r="21" ht="80.05" customHeight="1">
-      <c r="A21" t="s" s="8">
+    <row r="21" ht="56.35" customHeight="1">
+      <c r="A21" t="s" s="12">
         <v>23</v>
       </c>
       <c r="B21" s="9">
         <v>3</v>
       </c>
       <c r="C21" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
     </row>
-    <row r="22" ht="116.05" customHeight="1">
-      <c r="A22" t="s" s="8">
+    <row r="22" ht="68.35" customHeight="1">
+      <c r="A22" t="s" s="12">
         <v>24</v>
       </c>
       <c r="B22" s="9">
@@ -1760,12 +1749,12 @@
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
     </row>
-    <row r="23" ht="56.35" customHeight="1">
-      <c r="A23" t="s" s="12">
+    <row r="23" ht="104.05" customHeight="1">
+      <c r="A23" t="s" s="8">
         <v>25</v>
       </c>
       <c r="B23" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C23" s="10">
         <v>3</v>
@@ -1775,12 +1764,12 @@
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
     </row>
-    <row r="24" ht="68.35" customHeight="1">
-      <c r="A24" t="s" s="12">
+    <row r="24" ht="68.05" customHeight="1">
+      <c r="A24" t="s" s="8">
         <v>26</v>
       </c>
       <c r="B24" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C24" s="10">
         <v>3</v>
@@ -1790,7 +1779,7 @@
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
     </row>
-    <row r="25" ht="104.05" customHeight="1">
+    <row r="25" ht="44.05" customHeight="1">
       <c r="A25" t="s" s="8">
         <v>27</v>
       </c>
@@ -1798,14 +1787,14 @@
         <v>4</v>
       </c>
       <c r="C25" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
     </row>
-    <row r="26" ht="68.05" customHeight="1">
+    <row r="26" ht="104.05" customHeight="1">
       <c r="A26" t="s" s="8">
         <v>28</v>
       </c>
@@ -1813,14 +1802,14 @@
         <v>4</v>
       </c>
       <c r="C26" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" ht="44.05" customHeight="1">
+    <row r="27" ht="128.05" customHeight="1">
       <c r="A27" t="s" s="8">
         <v>29</v>
       </c>
@@ -1835,31 +1824,19 @@
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" ht="104.05" customHeight="1">
-      <c r="A28" t="s" s="8">
-        <v>30</v>
-      </c>
-      <c r="B28" s="9">
-        <v>4</v>
-      </c>
-      <c r="C28" s="10">
-        <v>4</v>
-      </c>
+    <row r="28" ht="20.05" customHeight="1">
+      <c r="A28" s="13"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="11"/>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
     </row>
-    <row r="29" ht="116.05" customHeight="1">
-      <c r="A29" t="s" s="8">
-        <v>31</v>
-      </c>
-      <c r="B29" s="9">
-        <v>4</v>
-      </c>
-      <c r="C29" s="10">
-        <v>4</v>
-      </c>
+    <row r="29" ht="20.05" customHeight="1">
+      <c r="A29" s="13"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="11"/>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
@@ -1910,24 +1887,6 @@
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
     </row>
-    <row r="35" ht="20.05" customHeight="1">
-      <c r="A35" s="13"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-    </row>
-    <row r="36" ht="20.05" customHeight="1">
-      <c r="A36" s="13"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-    </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/story_xlsx_files/44.xlsx
+++ b/story_xlsx_files/44.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
   <si>
     <t>storyText</t>
   </si>
@@ -29,13 +29,16 @@
     <t xml:space="preserve">Ariana hurried into the classroom, and Leon did a double-take when he saw her, almost dropping the eraser he had in his hand. </t>
   </si>
   <si>
-    <t xml:space="preserve">This was his first day in college, and he had assumed that he wouldn’t know anyone on campus, but he couldn't shake the nagging feeling that he had seen her somewhere before. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">They were in a small classroom with rows of chairs with foldable desks facing the speaker’s podium and a blackboard on wheels. </t>
-  </si>
-  <si>
-    <t>There were no windows in the room, since they were down in the basement of the history department.</t>
+    <t xml:space="preserve">This was his first day in college, and he had assumed that he wouldn’t know anyone on campus, but he had a strong feeling that he had seen her somewhere before. </t>
+  </si>
+  <si>
+    <t>They were in a small classroom with rows of chairs with foldable desks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">These faced the speaker’s podium and a blackboard on wheels. </t>
+  </si>
+  <si>
+    <t>There were no windows in the room, since they were down in the basement of the History Department.</t>
   </si>
   <si>
     <t>Leon, trying to figure out where he had seen her before, could not stop looking over at Ariana.</t>
@@ -44,7 +47,7 @@
     <t xml:space="preserve">Ariana was oblivious to Leon’s gaze and was only focused on getting ready for class. </t>
   </si>
   <si>
-    <t>“Good afternoon class,” the professor began.</t>
+    <t>“Good morning, everyone,” the professor began.</t>
   </si>
   <si>
     <t xml:space="preserve">“Welcome to History of Egypt. </t>
@@ -53,7 +56,7 @@
     <t>Today we will be talking about mummification, one of the most famous and often misunderstood customs in ancient Egyptian society.”</t>
   </si>
   <si>
-    <t xml:space="preserve">Leon and Ariana were taking notes. </t>
+    <t xml:space="preserve">Leon and Ariana began taking notes. </t>
   </si>
   <si>
     <t>Within a few minutes, Leon found his attention wandering from the lecture and back to Ariana, and he decided to do something about it by putting a note on her desk.</t>
@@ -65,7 +68,10 @@
     <t xml:space="preserve">She looked at the note with surprise, and then turned to notice Leon for the first time. </t>
   </si>
   <si>
-    <t>She instantly liked him when she saw him; she thought he looked trustworthy and genuine.</t>
+    <t>She instantly liked him when she saw him.</t>
+  </si>
+  <si>
+    <t>She thought he looked trustworthy and genuine.</t>
   </si>
   <si>
     <t>Ariana passed the note back to Leon, and she had replied, “No, but maybe my twin and I were separated at birth.”</t>
@@ -95,13 +101,13 @@
     <t xml:space="preserve">Everyone packed up and filed out of the classroom except for Ariana and Leon. </t>
   </si>
   <si>
-    <t>Ariana spoke first, “I have to go to my next class”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">She looked at the clock which read noon and, shocked, headed for the door saying, “I should run, but I’ll see you later tonight!” </t>
-  </si>
-  <si>
-    <t>She waved as she ran out the door, and Leon was still pondering where he had seen her before, even more convinced that they had met before having heard her voice.</t>
+    <t>Ariana spoke first, “I have to go to my next class.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">She looked at the clock which read noon and headed for the door saying, “I should run, but I’ll see you later tonight!” </t>
+  </si>
+  <si>
+    <t>She waved as she ran out the door, and Leon was still pondering where he had known her before, even more convinced that they had met before having heard her voice.</t>
   </si>
 </sst>
 </file>
@@ -310,13 +316,13 @@
     <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1402,7 +1408,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
@@ -1449,7 +1455,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" ht="140.05" customHeight="1">
+    <row r="3" ht="128.05" customHeight="1">
       <c r="A3" t="s" s="8">
         <v>5</v>
       </c>
@@ -1464,7 +1470,7 @@
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" ht="104.05" customHeight="1">
+    <row r="4" ht="68.05" customHeight="1">
       <c r="A4" t="s" s="8">
         <v>6</v>
       </c>
@@ -1479,22 +1485,18 @@
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" ht="92.05" customHeight="1">
+    <row r="5" ht="56.05" customHeight="1">
       <c r="A5" t="s" s="8">
         <v>7</v>
       </c>
-      <c r="B5" s="9">
-        <v>1</v>
-      </c>
-      <c r="C5" s="10">
-        <v>1</v>
-      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" ht="80.05" customHeight="1">
+    <row r="6" ht="92.05" customHeight="1">
       <c r="A6" t="s" s="8">
         <v>8</v>
       </c>
@@ -1509,7 +1511,7 @@
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" ht="68.05" customHeight="1">
+    <row r="7" ht="80.05" customHeight="1">
       <c r="A7" t="s" s="8">
         <v>9</v>
       </c>
@@ -1524,12 +1526,12 @@
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" ht="44.05" customHeight="1">
+    <row r="8" ht="68.05" customHeight="1">
       <c r="A8" t="s" s="8">
         <v>10</v>
       </c>
       <c r="B8" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" s="10">
         <v>1</v>
@@ -1539,7 +1541,7 @@
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" ht="32.05" customHeight="1">
+    <row r="9" ht="44.05" customHeight="1">
       <c r="A9" t="s" s="8">
         <v>11</v>
       </c>
@@ -1554,7 +1556,7 @@
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" ht="104.05" customHeight="1">
+    <row r="10" ht="32.05" customHeight="1">
       <c r="A10" t="s" s="8">
         <v>12</v>
       </c>
@@ -1569,7 +1571,7 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" ht="32.05" customHeight="1">
+    <row r="11" ht="104.05" customHeight="1">
       <c r="A11" t="s" s="8">
         <v>13</v>
       </c>
@@ -1584,7 +1586,7 @@
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" ht="128.05" customHeight="1">
+    <row r="12" ht="44.05" customHeight="1">
       <c r="A12" t="s" s="8">
         <v>14</v>
       </c>
@@ -1592,14 +1594,14 @@
         <v>2</v>
       </c>
       <c r="C12" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" ht="80.05" customHeight="1">
+    <row r="13" ht="128.05" customHeight="1">
       <c r="A13" t="s" s="8">
         <v>15</v>
       </c>
@@ -1614,7 +1616,7 @@
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
     </row>
-    <row r="14" ht="68.05" customHeight="1">
+    <row r="14" ht="80.05" customHeight="1">
       <c r="A14" t="s" s="8">
         <v>16</v>
       </c>
@@ -1629,7 +1631,7 @@
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
     </row>
-    <row r="15" ht="80.05" customHeight="1">
+    <row r="15" ht="68.05" customHeight="1">
       <c r="A15" t="s" s="8">
         <v>17</v>
       </c>
@@ -1644,7 +1646,7 @@
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
     </row>
-    <row r="16" ht="92.05" customHeight="1">
+    <row r="16" ht="44.05" customHeight="1">
       <c r="A16" t="s" s="8">
         <v>18</v>
       </c>
@@ -1659,12 +1661,12 @@
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" ht="104.05" customHeight="1">
+    <row r="17" ht="44.05" customHeight="1">
       <c r="A17" t="s" s="8">
         <v>19</v>
       </c>
       <c r="B17" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17" s="10">
         <v>2</v>
@@ -1674,12 +1676,12 @@
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
     </row>
-    <row r="18" ht="104.05" customHeight="1">
+    <row r="18" ht="92.05" customHeight="1">
       <c r="A18" t="s" s="8">
         <v>20</v>
       </c>
       <c r="B18" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C18" s="10">
         <v>2</v>
@@ -1689,7 +1691,7 @@
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
     </row>
-    <row r="19" ht="80.05" customHeight="1">
+    <row r="19" ht="104.05" customHeight="1">
       <c r="A19" t="s" s="8">
         <v>21</v>
       </c>
@@ -1704,7 +1706,7 @@
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" ht="116.05" customHeight="1">
+    <row r="20" ht="104.05" customHeight="1">
       <c r="A20" t="s" s="8">
         <v>22</v>
       </c>
@@ -1712,30 +1714,30 @@
         <v>3</v>
       </c>
       <c r="C20" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
     </row>
-    <row r="21" ht="56.35" customHeight="1">
-      <c r="A21" t="s" s="12">
+    <row r="21" ht="80.05" customHeight="1">
+      <c r="A21" t="s" s="8">
         <v>23</v>
       </c>
       <c r="B21" s="9">
         <v>3</v>
       </c>
       <c r="C21" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
     </row>
-    <row r="22" ht="68.35" customHeight="1">
-      <c r="A22" t="s" s="12">
+    <row r="22" ht="116.05" customHeight="1">
+      <c r="A22" t="s" s="8">
         <v>24</v>
       </c>
       <c r="B22" s="9">
@@ -1749,12 +1751,12 @@
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
     </row>
-    <row r="23" ht="104.05" customHeight="1">
-      <c r="A23" t="s" s="8">
+    <row r="23" ht="56.35" customHeight="1">
+      <c r="A23" t="s" s="13">
         <v>25</v>
       </c>
       <c r="B23" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C23" s="10">
         <v>3</v>
@@ -1764,12 +1766,12 @@
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
     </row>
-    <row r="24" ht="68.05" customHeight="1">
-      <c r="A24" t="s" s="8">
+    <row r="24" ht="68.35" customHeight="1">
+      <c r="A24" t="s" s="13">
         <v>26</v>
       </c>
       <c r="B24" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C24" s="10">
         <v>3</v>
@@ -1779,7 +1781,7 @@
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
     </row>
-    <row r="25" ht="44.05" customHeight="1">
+    <row r="25" ht="104.05" customHeight="1">
       <c r="A25" t="s" s="8">
         <v>27</v>
       </c>
@@ -1787,14 +1789,14 @@
         <v>4</v>
       </c>
       <c r="C25" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
     </row>
-    <row r="26" ht="104.05" customHeight="1">
+    <row r="26" ht="68.05" customHeight="1">
       <c r="A26" t="s" s="8">
         <v>28</v>
       </c>
@@ -1802,14 +1804,14 @@
         <v>4</v>
       </c>
       <c r="C26" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" ht="128.05" customHeight="1">
+    <row r="27" ht="44.05" customHeight="1">
       <c r="A27" t="s" s="8">
         <v>29</v>
       </c>
@@ -1824,27 +1826,39 @@
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" ht="20.05" customHeight="1">
-      <c r="A28" s="13"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="11"/>
+    <row r="28" ht="92.05" customHeight="1">
+      <c r="A28" t="s" s="8">
+        <v>30</v>
+      </c>
+      <c r="B28" s="9">
+        <v>4</v>
+      </c>
+      <c r="C28" s="10">
+        <v>4</v>
+      </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
     </row>
-    <row r="29" ht="20.05" customHeight="1">
-      <c r="A29" s="13"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="11"/>
+    <row r="29" ht="128.05" customHeight="1">
+      <c r="A29" t="s" s="8">
+        <v>31</v>
+      </c>
+      <c r="B29" s="9">
+        <v>4</v>
+      </c>
+      <c r="C29" s="10">
+        <v>4</v>
+      </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
     </row>
     <row r="30" ht="20.05" customHeight="1">
-      <c r="A30" s="13"/>
-      <c r="B30" s="14"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="12"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
@@ -1852,8 +1866,8 @@
       <c r="G30" s="11"/>
     </row>
     <row r="31" ht="20.05" customHeight="1">
-      <c r="A31" s="13"/>
-      <c r="B31" s="14"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="12"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
@@ -1861,8 +1875,8 @@
       <c r="G31" s="11"/>
     </row>
     <row r="32" ht="20.05" customHeight="1">
-      <c r="A32" s="13"/>
-      <c r="B32" s="14"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="12"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
@@ -1870,8 +1884,8 @@
       <c r="G32" s="11"/>
     </row>
     <row r="33" ht="20.05" customHeight="1">
-      <c r="A33" s="13"/>
-      <c r="B33" s="14"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="12"/>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
@@ -1879,13 +1893,31 @@
       <c r="G33" s="11"/>
     </row>
     <row r="34" ht="20.05" customHeight="1">
-      <c r="A34" s="13"/>
-      <c r="B34" s="14"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="12"/>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
+    </row>
+    <row r="35" ht="20.05" customHeight="1">
+      <c r="A35" s="14"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+    </row>
+    <row r="36" ht="20.05" customHeight="1">
+      <c r="A36" s="14"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/story_xlsx_files/44.xlsx
+++ b/story_xlsx_files/44.xlsx
@@ -59,7 +59,7 @@
     <t xml:space="preserve">Leon and Ariana began taking notes. </t>
   </si>
   <si>
-    <t>Within a few minutes, Leon found his attention wandering from the lecture and back to Ariana, and he decided to do something about it by putting a note on her desk.</t>
+    <t>Within a few minutes, though, Leon found his attention wandering from the lecture and back to Ariana, and he decided to do something about it by putting a note on her desk.</t>
   </si>
   <si>
     <t>“Are you from LA?” it read, “Sorry to distract you from mummies, but you look really familiar.”</t>
@@ -107,7 +107,7 @@
     <t xml:space="preserve">She looked at the clock which read noon and headed for the door saying, “I should run, but I’ll see you later tonight!” </t>
   </si>
   <si>
-    <t>She waved as she ran out the door, and Leon was still pondering where he had known her before, even more convinced that they had met before having heard her voice.</t>
+    <t>She waved as she ran out the door, and Leon was still pondering where he had met her before, even more convinced of his conviction that they had previously met after hearing her voice.</t>
   </si>
 </sst>
 </file>
@@ -1601,7 +1601,7 @@
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" ht="128.05" customHeight="1">
+    <row r="13" ht="140.05" customHeight="1">
       <c r="A13" t="s" s="8">
         <v>15</v>
       </c>
@@ -1841,7 +1841,7 @@
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
     </row>
-    <row r="29" ht="128.05" customHeight="1">
+    <row r="29" ht="140.05" customHeight="1">
       <c r="A29" t="s" s="8">
         <v>31</v>
       </c>
